--- a/displayData.xlsx
+++ b/displayData.xlsx
@@ -7,29 +7,137 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeesList" sheetId="1" r:id="rId1"/>
+    <sheet name="October 2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>MonthlySalary</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Total_Days_Worked</t>
+  </si>
+  <si>
+    <t>Advance_Balance</t>
+  </si>
+  <si>
+    <t>Advance_For_Month</t>
+  </si>
+  <si>
+    <t>Salary_For_Month</t>
+  </si>
   <si>
     <t>EmployeeName</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>Shyamu</t>
+  </si>
+  <si>
+    <t>Ramu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,27 +145,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,11 +166,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,29 +462,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>6000</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/displayData.xlsx
+++ b/displayData.xlsx
@@ -7,19 +7,124 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeesList" sheetId="1" r:id="rId1"/>
+    <sheet name="October 2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>MonthlySalary</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Total_Days_Worked</t>
+  </si>
+  <si>
+    <t>Advance_Balance</t>
+  </si>
+  <si>
+    <t>Advance_For_Month</t>
+  </si>
+  <si>
+    <t>Salary_For_Month</t>
+  </si>
   <si>
     <t>EmployeeName</t>
-  </si>
-  <si>
-    <t>Salary</t>
   </si>
   <si>
     <t>Shyamu</t>
@@ -32,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,27 +145,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,11 +166,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,37 +462,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>6000</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/displayData.xlsx
+++ b/displayData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="October 2017" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -112,16 +112,16 @@
     <t>31</t>
   </si>
   <si>
-    <t>Total_Days_Worked</t>
+    <t>Days_Worked</t>
   </si>
   <si>
     <t>Advance_Balance</t>
   </si>
   <si>
-    <t>Advance_For_Month</t>
-  </si>
-  <si>
     <t>Salary_For_Month</t>
+  </si>
+  <si>
+    <t>Paid_In_Month</t>
   </si>
   <si>
     <t>EmployeeName</t>
@@ -136,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +145,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,14 +188,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,6 +288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,6 +323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,353 +499,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="33" width="3.7109375" style="2" customWidth="1"/>
+    <col min="34" max="36" width="18.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6000</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <f>SUM($C2:$AG2)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>B2*(SUM($C2:$AG2))/28</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
-      <c r="A3" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5000</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>SUM($C3:$AG3)</f>
+        <v>28</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5">
+        <f>B3*(SUM($C3:$AG3))/28</f>
+        <v>5000</v>
+      </c>
+      <c r="AK3" s="2">
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AG3">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/displayData.xlsx
+++ b/displayData.xlsx
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -198,7 +198,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +502,7 @@
   <dimension ref="A1:AK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -681,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
@@ -690,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="2">
         <v>0</v>
@@ -730,14 +729,14 @@
       </c>
       <c r="AH2" s="1">
         <f>SUM($C2:$AG2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI2" s="1">
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <f>B2*(SUM($C2:$AG2))/28</f>
-        <v>0</v>
+        <v>642.85714285714289</v>
       </c>
       <c r="AK2" s="2">
         <v>0</v>
@@ -850,7 +849,7 @@
       <c r="AI3" s="1">
         <v>0</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="1">
         <f>B3*(SUM($C3:$AG3))/28</f>
         <v>5000</v>
       </c>
@@ -1056,12 +1055,12 @@
     <row r="199" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="200" s="4" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:AG3">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/displayData.xlsx
+++ b/displayData.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:AK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="AO21" sqref="AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="Z2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="2">
         <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="2">
         <v>0</v>
@@ -729,14 +729,14 @@
       </c>
       <c r="AH2" s="1">
         <f>SUM($C2:$AG2)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" s="1">
-        <f>B2*(SUM($C2:$AG2))/28</f>
-        <v>642.85714285714289</v>
+        <f>CEILING(B2*(SUM($C2:$AG2))/28,10)</f>
+        <v>1500</v>
       </c>
       <c r="AK2" s="2">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <f>B3*(SUM($C3:$AG3))/28</f>
+        <f>CEILING(B3*(SUM($C3:$AG3))/28,10)</f>
         <v>5000</v>
       </c>
       <c r="AK3" s="2">

--- a/displayData.xlsx
+++ b/displayData.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:AK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+      <selection activeCell="AK34" sqref="AK34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -729,17 +729,17 @@
       </c>
       <c r="AH2" s="1">
         <f>SUM($C2:$AG2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" s="1">
         <v>1000</v>
       </c>
       <c r="AJ2" s="1">
         <f>CEILING(B2*(SUM($C2:$AG2))/28,10)</f>
-        <v>1500</v>
+        <v>1720</v>
       </c>
       <c r="AK2" s="2">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
